--- a/Simper_OTU/stevia.post.rem_sex_krusk_simper.xlsx
+++ b/Simper_OTU/stevia.post.rem_sex_krusk_simper.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\Simper_OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CE2B5FC1-1F31-413C-BFA4-2AB08A83CBF6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4D0DF2-8417-41B0-9CEE-CD6B7A4AA4FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stevia.post.rem_sex_krusk_simpe" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,12 +424,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -595,7 +589,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1095,7 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.11170875175739001</v>
       </c>
       <c r="E5">
